--- a/DVA_Emissions_ChristopherSanderson_PeterTower/DVA Emissions.xlsx
+++ b/DVA_Emissions_ChristopherSanderson_PeterTower/DVA Emissions.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChSan\Documents\UiPath\DVA_Emissions_ChristopherSanderson_PeterTower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E931646C-DAAE-43E8-B15F-BCF3A5C79CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1F0258-D1E5-4554-8A40-06130C321F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Low Emission Cars" sheetId="1" r:id="rId1"/>
-    <sheet name="Ultra-Low Cars" sheetId="2" r:id="rId2"/>
+    <sheet name="Ultra-Low Emission Cars" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/DVA_Emissions_ChristopherSanderson_PeterTower/DVA Emissions.xlsx
+++ b/DVA_Emissions_ChristopherSanderson_PeterTower/DVA Emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChSan\Documents\UiPath\DVA_Emissions_ChristopherSanderson_PeterTower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1F0258-D1E5-4554-8A40-06130C321F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C52B6E-A860-47FE-BCC2-652D16E138E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
